--- a/public/users.xlsx
+++ b/public/users.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Update\test-clauda\TEST\public\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="162913" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>Keely Kuphal I</t>
   </si>
@@ -81,19 +85,32 @@
   </si>
   <si>
     <t>ransom34@example.com</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -108,21 +125,33 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -412,231 +441,242 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <tableParts count="0"/>
 </worksheet>
 </file>